--- a/doc/url命名示例.xlsx
+++ b/doc/url命名示例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>url</t>
   </si>
@@ -47,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,18 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username:用户名称 passwd:密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录系统，获取权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role:root/admin/user之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错误界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>render_template('logout.html')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>render_template('index.html')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +88,174 @@
   </si>
   <si>
     <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect('index')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username:用户名称 passwd:密码 next:登录成功后跳转的下一个url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json {role:root/admin/user之一}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next不能为log_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect('index')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前用户pop出session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:uuid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid:用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回用户信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('user.html', uuid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/&lt;int:pid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid:产品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回产品信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('product.html', pid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/&lt;int:iid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid:工艺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回工艺信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('item.html', iid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/community/&lt;int:cid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid:社区id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回社区信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('community.html', cid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid: 社区id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/transcation/&lt;int:uuid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid:用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回某人的流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/transcation/&lt;int:c	id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/transcation/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回某个社区的流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('transcation.html', uuid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅对root开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render_template('transcation.html')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:cid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回某个社区的所有用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json｛{username,…}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,18 +356,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,23 +706,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="27.875" style="2"/>
+    <col min="2" max="2" width="27.875" style="1"/>
+    <col min="3" max="16384" width="27.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,90 +736,247 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
